--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3652.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3652.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.334736319733756</v>
+        <v>1.911620497703552</v>
       </c>
       <c r="B1">
-        <v>1.448679990768133</v>
+        <v>1.89979076385498</v>
       </c>
       <c r="C1">
-        <v>1.64447509141886</v>
+        <v>1.807050466537476</v>
       </c>
       <c r="D1">
-        <v>2.608276204504625</v>
+        <v>1.003948211669922</v>
       </c>
       <c r="E1">
-        <v>7.04562241173786</v>
+        <v>0.6872348785400391</v>
       </c>
     </row>
   </sheetData>
